--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H2">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I2">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J2">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N2">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O2">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P2">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q2">
-        <v>0.2570301202898889</v>
+        <v>0.266918292854</v>
       </c>
       <c r="R2">
-        <v>2.313271082609</v>
+        <v>2.402264635686</v>
       </c>
       <c r="S2">
-        <v>0.009459708813948867</v>
+        <v>0.01040592571300566</v>
       </c>
       <c r="T2">
-        <v>0.010032011519651</v>
+        <v>0.01081863160699022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H3">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I3">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J3">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O3">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P3">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q3">
-        <v>0.620651007636</v>
+        <v>0.8637355152359998</v>
       </c>
       <c r="R3">
-        <v>5.585859068724</v>
+        <v>7.773619637123999</v>
       </c>
       <c r="S3">
-        <v>0.02284237271763622</v>
+        <v>0.03367310464609766</v>
       </c>
       <c r="T3">
-        <v>0.02422431289867894</v>
+        <v>0.03500860224039958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H4">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I4">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J4">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N4">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O4">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P4">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q4">
-        <v>0.3325425414448889</v>
+        <v>0.438489422182</v>
       </c>
       <c r="R4">
-        <v>2.992882873004</v>
+        <v>3.946404799638</v>
       </c>
       <c r="S4">
-        <v>0.01223885981445001</v>
+        <v>0.01709470079542467</v>
       </c>
       <c r="T4">
-        <v>0.0129792983125347</v>
+        <v>0.01777268793167307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H5">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I5">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J5">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N5">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O5">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P5">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q5">
-        <v>0.3299762720693333</v>
+        <v>0.282054165471</v>
       </c>
       <c r="R5">
-        <v>1.979857632416</v>
+        <v>1.692324992826</v>
       </c>
       <c r="S5">
-        <v>0.01214441111324903</v>
+        <v>0.01099600428862494</v>
       </c>
       <c r="T5">
-        <v>0.008586090374356457</v>
+        <v>0.007621408726045114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H6">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I6">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J6">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N6">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O6">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P6">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q6">
-        <v>0.387873977966889</v>
+        <v>0.613382630796</v>
       </c>
       <c r="R6">
-        <v>3.490865801702001</v>
+        <v>5.520443677164001</v>
       </c>
       <c r="S6">
-        <v>0.01427527203401899</v>
+        <v>0.02391298858337316</v>
       </c>
       <c r="T6">
-        <v>0.01513891138808202</v>
+        <v>0.02486139352141813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I7">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J7">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N7">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O7">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P7">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q7">
-        <v>3.365121208354999</v>
+        <v>2.51108676017</v>
       </c>
       <c r="R7">
-        <v>30.28609087519499</v>
+        <v>22.59978084153</v>
       </c>
       <c r="S7">
-        <v>0.1238495578602984</v>
+        <v>0.09789580926000403</v>
       </c>
       <c r="T7">
-        <v>0.1313423294093493</v>
+        <v>0.101778421782165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I8">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J8">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O8">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P8">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q8">
         <v>8.125763106779997</v>
@@ -948,10 +948,10 @@
         <v>73.13186796101999</v>
       </c>
       <c r="S8">
-        <v>0.2990597086231496</v>
+        <v>0.3167864081046164</v>
       </c>
       <c r="T8">
-        <v>0.3171525150485596</v>
+        <v>0.3293503665033941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I9">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J9">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N9">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O9">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P9">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q9">
-        <v>4.35375417338</v>
+        <v>4.12517617561</v>
       </c>
       <c r="R9">
-        <v>39.18378756042</v>
+        <v>37.12658558048999</v>
       </c>
       <c r="S9">
-        <v>0.1602350988329269</v>
+        <v>0.1608217869875949</v>
       </c>
       <c r="T9">
-        <v>0.1699291583874147</v>
+        <v>0.1672000853919315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I10">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J10">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N10">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O10">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P10">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q10">
-        <v>4.320155747279999</v>
+        <v>2.653480482705</v>
       </c>
       <c r="R10">
-        <v>25.92093448368</v>
+        <v>15.92088289623</v>
       </c>
       <c r="S10">
-        <v>0.158998545983967</v>
+        <v>0.1034470904511663</v>
       </c>
       <c r="T10">
-        <v>0.1124118635707468</v>
+        <v>0.07169991363718251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I11">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J11">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N11">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O11">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P11">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q11">
-        <v>5.07817118069</v>
+        <v>5.77051871058</v>
       </c>
       <c r="R11">
-        <v>45.70354062621</v>
+        <v>51.93466839522</v>
       </c>
       <c r="S11">
-        <v>0.1868964642063549</v>
+        <v>0.2249661811700922</v>
       </c>
       <c r="T11">
-        <v>0.1982035090906265</v>
+        <v>0.2338884886588009</v>
       </c>
     </row>
   </sheetData>
